--- a/data/trans_orig/P25C_R2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>2585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6927</v>
+        <v>6725</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02104259978126296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007018207077680891</v>
+        <v>0.007121198058693367</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0563959744383373</v>
+        <v>0.05475494252201938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2841</v>
+        <v>2731</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01068476522995199</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05375101480352452</v>
+        <v>0.05166158927835066</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>3149</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1003</v>
+        <v>1133</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7257</v>
+        <v>7907</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01792635524737896</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005706873653473282</v>
+        <v>0.006447384082212273</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04130999302160697</v>
+        <v>0.04500866595320636</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>120242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115900</v>
+        <v>116102</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121965</v>
+        <v>121952</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9789574002187371</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9436040255616613</v>
+        <v>0.9452450574779807</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.992981792922319</v>
+        <v>0.9928788019413067</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -833,16 +833,16 @@
         <v>52291</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50015</v>
+        <v>50125</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>52856</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9893152347700482</v>
+        <v>0.989315234770048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9462489851964754</v>
+        <v>0.9483384107216493</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>172533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>168425</v>
+        <v>167775</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>174679</v>
+        <v>174549</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.982073644752621</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.958690006978393</v>
+        <v>0.9549913340467938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9942931263465268</v>
+        <v>0.9935526159177877</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>4292</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8972</v>
+        <v>9508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02510039370889615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008953628897634082</v>
+        <v>0.008884662053410737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05246522948252512</v>
+        <v>0.05560175048156536</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -979,19 +979,19 @@
         <v>4694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2179</v>
+        <v>2207</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8411</v>
+        <v>8738</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05211532077912864</v>
+        <v>0.05211532077912862</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02419797505606245</v>
+        <v>0.02450810913282075</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09339285421717539</v>
+        <v>0.09702178910768468</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1000,19 +1000,19 @@
         <v>8986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5195</v>
+        <v>5140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15589</v>
+        <v>15322</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03442005500367382</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01989829201186192</v>
+        <v>0.01968995503763422</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05971293192355508</v>
+        <v>0.05869192919877966</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>166708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>162028</v>
+        <v>161492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>169469</v>
+        <v>169481</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9748996062911037</v>
+        <v>0.9748996062911038</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9475347705174755</v>
+        <v>0.944398249518436</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.991046371102366</v>
+        <v>0.9911153379465893</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>122</v>
@@ -1050,19 +1050,19 @@
         <v>85367</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>81650</v>
+        <v>81323</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>87882</v>
+        <v>87854</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9478846792208715</v>
+        <v>0.9478846792208714</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9066071457828258</v>
+        <v>0.9029782108923151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9758020249439378</v>
+        <v>0.9754918908671792</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>307</v>
@@ -1071,19 +1071,19 @@
         <v>252075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>245472</v>
+        <v>245739</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>255866</v>
+        <v>255921</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9655799449963263</v>
+        <v>0.9655799449963264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9402870680764449</v>
+        <v>0.9413080708012204</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9801017079881377</v>
+        <v>0.9803100449623658</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>2835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7788</v>
+        <v>8392</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01723324093913545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004319335974108777</v>
+        <v>0.004226043330422796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04733195559261499</v>
+        <v>0.05100703509664512</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1196,19 +1196,19 @@
         <v>3097</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7345</v>
+        <v>7361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03704450077954555</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008444483303502285</v>
+        <v>0.008543095144876108</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08785125083955303</v>
+        <v>0.08804106447267444</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1217,19 +1217,19 @@
         <v>5933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2670</v>
+        <v>2509</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12020</v>
+        <v>11631</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02390847590109716</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01075842682873129</v>
+        <v>0.0101116444030487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04843864739331919</v>
+        <v>0.04687105967452541</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>161700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>156747</v>
+        <v>156143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163824</v>
+        <v>163840</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9827667590608644</v>
+        <v>0.9827667590608646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.952668044407385</v>
+        <v>0.9489929649033547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956806640258913</v>
+        <v>0.9957739566695771</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -1267,19 +1267,19 @@
         <v>80513</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76265</v>
+        <v>76249</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>82904</v>
+        <v>82896</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9629554992204542</v>
+        <v>0.9629554992204546</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.912148749160445</v>
+        <v>0.9119589355273255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9915555166964977</v>
+        <v>0.9914569048551238</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>266</v>
@@ -1288,19 +1288,19 @@
         <v>242212</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>236125</v>
+        <v>236514</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>245475</v>
+        <v>245636</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9760915240989027</v>
+        <v>0.9760915240989029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9515613526066814</v>
+        <v>0.953128940325474</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9892415731712688</v>
+        <v>0.9898883555969513</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>5218</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10455</v>
+        <v>9974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02584795168106829</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01114420050914484</v>
+        <v>0.01112253809029384</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05179257319202592</v>
+        <v>0.04941048879843239</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1413,19 +1413,19 @@
         <v>6175</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2791</v>
+        <v>2693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11391</v>
+        <v>11423</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04431008119138458</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02002674192864855</v>
+        <v>0.01932298462350529</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08173887537001447</v>
+        <v>0.0819685666656087</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1434,19 +1434,19 @@
         <v>11393</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6698</v>
+        <v>6839</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17360</v>
+        <v>17744</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03338834199349806</v>
+        <v>0.03338834199349807</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01962946843448024</v>
+        <v>0.0200437173669846</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05087487139369222</v>
+        <v>0.05200216210879482</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>196639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191402</v>
+        <v>191883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199607</v>
+        <v>199612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9741520483189318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.948207426807974</v>
+        <v>0.9505895112015678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9888557994908551</v>
+        <v>0.9888774619097062</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>196</v>
@@ -1484,19 +1484,19 @@
         <v>133188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127972</v>
+        <v>127940</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136572</v>
+        <v>136670</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9556899188086154</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9182611246299855</v>
+        <v>0.9180314333343911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9799732580713516</v>
+        <v>0.9806770153764949</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>435</v>
@@ -1505,19 +1505,19 @@
         <v>329827</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>323860</v>
+        <v>323476</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>334522</v>
+        <v>334381</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.966611658006502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9491251286063076</v>
+        <v>0.9479978378912051</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9803705315655198</v>
+        <v>0.9799562826330155</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>14930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9113</v>
+        <v>9585</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22774</v>
+        <v>23059</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02261345044283584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01380291081923009</v>
+        <v>0.01451726643805211</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03449457760058577</v>
+        <v>0.03492699244577681</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1630,19 +1630,19 @@
         <v>14531</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8709</v>
+        <v>9586</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21259</v>
+        <v>21315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03971358767478163</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02380359462623365</v>
+        <v>0.0261977729379862</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05810273188758425</v>
+        <v>0.05825536449868826</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1651,19 +1651,19 @@
         <v>29461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21015</v>
+        <v>21098</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39046</v>
+        <v>39090</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02871102051280562</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02048022006556542</v>
+        <v>0.02056103241253297</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03805263549532695</v>
+        <v>0.0380954741565423</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>645289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>637445</v>
+        <v>637160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>651106</v>
+        <v>650634</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.977386549557164</v>
+        <v>0.9773865495571641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9655054223994146</v>
+        <v>0.9650730075542231</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.98619708918077</v>
+        <v>0.9854827335619479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>503</v>
@@ -1701,19 +1701,19 @@
         <v>351359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>344631</v>
+        <v>344575</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>357181</v>
+        <v>356304</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9602864123252184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9418972681124157</v>
+        <v>0.9417446355013115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9761964053737662</v>
+        <v>0.9738022270620138</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1243</v>
@@ -1722,19 +1722,19 @@
         <v>996648</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>987063</v>
+        <v>987019</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1005094</v>
+        <v>1005011</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9712889794871943</v>
+        <v>0.9712889794871944</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.961947364504673</v>
+        <v>0.9619045258434575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9795197799344348</v>
+        <v>0.9794389675874666</v>
       </c>
     </row>
     <row r="18">
